--- a/output2/【河洛話注音】金剛般若波羅蜜經011。無為福勝分第十一.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經011。無為福勝分第十一.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{088B0563-99A6-476C-901F-7C347BB36D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39BA66AE-30E6-409C-A642-AD8BF7CEA0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="12495" windowWidth="36150" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="418">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1361,10 +1361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hun1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1381,10 +1377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄚㆴ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1461,14 +1453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sua1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1481,34 +1465,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄠ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>si6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄉㄢˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1577,10 +1541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆬˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>se3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1589,10 +1549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄨㄣ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1605,10 +1561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hong2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1645,10 +1597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ko3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1677,10 +1625,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lam5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1689,22 +1633,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsur2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1713,14 +1645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>po2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1753,14 +1677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshainn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㆮ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tua7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1797,10 +1713,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tit4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1809,18 +1721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>put8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tshur2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄘˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1841,22 +1741,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siu6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ti5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1869,10 +1757,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ku3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1881,14 +1765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ke7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thann1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1909,23 +1785,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiek4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄢˊ</t>
+    <t>ㄒㄧㄥ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄠ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zur2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄢ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cur2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄢˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4250,16 +4254,16 @@
         <v>274</v>
       </c>
       <c r="H4" s="98" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J4" s="98" t="s">
+        <v>382</v>
+      </c>
+      <c r="K4" s="98" t="s">
         <v>280</v>
-      </c>
-      <c r="K4" s="98" t="s">
-        <v>282</v>
       </c>
       <c r="L4" s="98"/>
       <c r="M4" s="98"/>
@@ -4322,19 +4326,19 @@
         <v>273</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>275</v>
+        <v>381</v>
       </c>
       <c r="H6" s="100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I6" s="100" t="s">
+        <v>278</v>
+      </c>
+      <c r="J6" s="100" t="s">
         <v>279</v>
       </c>
-      <c r="J6" s="100" t="s">
+      <c r="K6" s="100" t="s">
         <v>281</v>
-      </c>
-      <c r="K6" s="100" t="s">
-        <v>283</v>
       </c>
       <c r="L6" s="100"/>
       <c r="M6" s="100"/>
@@ -4372,42 +4376,42 @@
       <c r="C8" s="52"/>
       <c r="D8" s="98"/>
       <c r="E8" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="98" t="s">
         <v>284</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="G8" s="98" t="s">
         <v>286</v>
-      </c>
-      <c r="G8" s="98" t="s">
-        <v>288</v>
       </c>
       <c r="H8" s="98"/>
       <c r="I8" s="98" t="s">
+        <v>288</v>
+      </c>
+      <c r="J8" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="K8" s="98" t="s">
         <v>292</v>
       </c>
-      <c r="K8" s="98" t="s">
+      <c r="L8" s="98" t="s">
         <v>294</v>
       </c>
-      <c r="L8" s="98" t="s">
+      <c r="M8" s="98" t="s">
         <v>296</v>
       </c>
-      <c r="M8" s="98" t="s">
+      <c r="N8" s="98" t="s">
+        <v>383</v>
+      </c>
+      <c r="O8" s="98" t="s">
         <v>298</v>
       </c>
-      <c r="N8" s="98" t="s">
+      <c r="P8" s="98" t="s">
         <v>300</v>
-      </c>
-      <c r="O8" s="98" t="s">
-        <v>302</v>
-      </c>
-      <c r="P8" s="98" t="s">
-        <v>304</v>
       </c>
       <c r="Q8" s="98"/>
       <c r="R8" s="98" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="107"/>
@@ -4472,42 +4476,42 @@
       <c r="C10" s="52"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="F10" s="100" t="s">
+      <c r="G10" s="100" t="s">
         <v>287</v>
-      </c>
-      <c r="G10" s="100" t="s">
-        <v>289</v>
       </c>
       <c r="H10" s="100"/>
       <c r="I10" s="100" t="s">
+        <v>289</v>
+      </c>
+      <c r="J10" s="100" t="s">
         <v>291</v>
       </c>
-      <c r="J10" s="100" t="s">
+      <c r="K10" s="100" t="s">
         <v>293</v>
       </c>
-      <c r="K10" s="100" t="s">
+      <c r="L10" s="100" t="s">
         <v>295</v>
       </c>
-      <c r="L10" s="100" t="s">
+      <c r="M10" s="100" t="s">
         <v>297</v>
       </c>
-      <c r="M10" s="100" t="s">
+      <c r="N10" s="100" t="s">
+        <v>384</v>
+      </c>
+      <c r="O10" s="100" t="s">
         <v>299</v>
       </c>
-      <c r="N10" s="100" t="s">
-        <v>301</v>
-      </c>
-      <c r="O10" s="100" t="s">
-        <v>303</v>
-      </c>
       <c r="P10" s="100" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="100"/>
       <c r="R10" s="100" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="107"/>
@@ -4537,45 +4541,45 @@
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="98" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="G12" s="98" t="s">
+        <v>290</v>
+      </c>
+      <c r="H12" s="98" t="s">
         <v>292</v>
-      </c>
-      <c r="H12" s="98" t="s">
-        <v>294</v>
       </c>
       <c r="I12" s="98"/>
       <c r="J12" s="98" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
       <c r="K12" s="98" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="L12" s="98" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="M12" s="98" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="N12" s="98"/>
       <c r="O12" s="98" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P12" s="98" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="Q12" s="98" t="s">
+        <v>290</v>
+      </c>
+      <c r="R12" s="98" t="s">
         <v>292</v>
-      </c>
-      <c r="R12" s="98" t="s">
-        <v>294</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="107"/>
@@ -4638,45 +4642,45 @@
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="100" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F14" s="100" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
       <c r="G14" s="100" t="s">
+        <v>291</v>
+      </c>
+      <c r="H14" s="100" t="s">
         <v>293</v>
-      </c>
-      <c r="H14" s="100" t="s">
-        <v>295</v>
       </c>
       <c r="I14" s="100"/>
       <c r="J14" s="100" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="K14" s="100" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="L14" s="100" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="M14" s="100" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="N14" s="100"/>
       <c r="O14" s="100" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
       <c r="P14" s="100" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="100" t="s">
+        <v>291</v>
+      </c>
+      <c r="R14" s="100" t="s">
         <v>293</v>
-      </c>
-      <c r="R14" s="100" t="s">
-        <v>295</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="107"/>
@@ -4706,39 +4710,39 @@
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="98" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E16" s="98"/>
       <c r="F16" s="98" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G16" s="98" t="s">
         <v>270</v>
       </c>
       <c r="H16" s="98" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="I16" s="98" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="J16" s="98"/>
       <c r="K16" s="98"/>
       <c r="L16" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="M16" s="98" t="s">
         <v>284</v>
       </c>
-      <c r="M16" s="98" t="s">
+      <c r="N16" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="N16" s="98" t="s">
-        <v>288</v>
-      </c>
       <c r="O16" s="98" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="P16" s="98"/>
       <c r="Q16" s="98"/>
       <c r="R16" s="98" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="107"/>
@@ -4801,39 +4805,39 @@
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="100" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E18" s="100"/>
       <c r="F18" s="100" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G18" s="100" t="s">
         <v>271</v>
       </c>
       <c r="H18" s="100" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I18" s="100" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J18" s="100"/>
       <c r="K18" s="100"/>
       <c r="L18" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="M18" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="M18" s="100" t="s">
+      <c r="N18" s="100" t="s">
         <v>287</v>
       </c>
-      <c r="N18" s="100" t="s">
-        <v>289</v>
-      </c>
       <c r="O18" s="100" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="P18" s="100"/>
       <c r="Q18" s="100"/>
       <c r="R18" s="100" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="107"/>
@@ -4863,40 +4867,40 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="98" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E20" s="98"/>
       <c r="F20" s="98" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>332</v>
+        <v>392</v>
       </c>
       <c r="H20" s="98"/>
       <c r="I20" s="98" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J20" s="98" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="K20" s="98" t="s">
+        <v>290</v>
+      </c>
+      <c r="L20" s="98" t="s">
         <v>292</v>
-      </c>
-      <c r="L20" s="98" t="s">
-        <v>294</v>
       </c>
       <c r="M20" s="98"/>
       <c r="N20" s="98" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="O20" s="98" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="P20" s="98" t="s">
         <v>268</v>
       </c>
       <c r="Q20" s="98" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="R20" s="98"/>
       <c r="S20" s="53"/>
@@ -4960,40 +4964,40 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="100" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E22" s="100"/>
       <c r="F22" s="100" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G22" s="100" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="H22" s="100"/>
       <c r="I22" s="100" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="J22" s="100" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K22" s="100" t="s">
+        <v>291</v>
+      </c>
+      <c r="L22" s="100" t="s">
         <v>293</v>
-      </c>
-      <c r="L22" s="100" t="s">
-        <v>295</v>
       </c>
       <c r="M22" s="100"/>
       <c r="N22" s="100" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="O22" s="100" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="P22" s="100" t="s">
         <v>269</v>
       </c>
       <c r="Q22" s="100" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
       <c r="R22" s="100"/>
       <c r="S22" s="58"/>
@@ -5024,16 +5028,16 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="98" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E24" s="98" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H24" s="98"/>
       <c r="I24" s="98"/>
@@ -5089,16 +5093,16 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="100" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E26" s="100" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F26" s="100" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="100"/>
@@ -5148,42 +5152,42 @@
       <c r="C28" s="52"/>
       <c r="D28" s="98"/>
       <c r="E28" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="F28" s="98" t="s">
         <v>284</v>
       </c>
-      <c r="F28" s="98" t="s">
+      <c r="G28" s="98" t="s">
         <v>286</v>
-      </c>
-      <c r="G28" s="98" t="s">
-        <v>288</v>
       </c>
       <c r="H28" s="98"/>
       <c r="I28" s="98" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="J28" s="98" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="K28" s="98" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="L28" s="98" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M28" s="98" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="N28" s="98" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="O28" s="98"/>
       <c r="P28" s="98" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="Q28" s="98" t="s">
-        <v>300</v>
+        <v>383</v>
       </c>
       <c r="R28" s="98" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="82" t="str">
@@ -5255,42 +5259,42 @@
       <c r="C30" s="52"/>
       <c r="D30" s="100"/>
       <c r="E30" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="F30" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="F30" s="100" t="s">
+      <c r="G30" s="100" t="s">
         <v>287</v>
-      </c>
-      <c r="G30" s="100" t="s">
-        <v>289</v>
       </c>
       <c r="H30" s="100"/>
       <c r="I30" s="100" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="J30" s="100" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="K30" s="100" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="L30" s="100" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="M30" s="100" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="N30" s="100" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="O30" s="100"/>
       <c r="P30" s="100" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="Q30" s="100" t="s">
-        <v>301</v>
+        <v>384</v>
       </c>
       <c r="R30" s="100" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="82" t="str">
@@ -5328,45 +5332,45 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="98" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="E32" s="98" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="F32" s="98"/>
       <c r="G32" s="98" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="H32" s="98" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="I32" s="98" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="J32" s="98"/>
       <c r="K32" s="98" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="L32" s="98" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="M32" s="98" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="N32" s="98" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="O32" s="98" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="P32" s="98" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q32" s="98" t="s">
+        <v>290</v>
+      </c>
+      <c r="R32" s="98" t="s">
         <v>292</v>
-      </c>
-      <c r="R32" s="98" t="s">
-        <v>294</v>
       </c>
       <c r="S32" s="53"/>
       <c r="U32" s="82" t="str">
@@ -5433,45 +5437,45 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="100" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="E34" s="100" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="F34" s="100"/>
       <c r="G34" s="100" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="H34" s="100" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="I34" s="100" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="J34" s="100"/>
       <c r="K34" s="100" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="L34" s="100" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="M34" s="100" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="N34" s="100" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="O34" s="100" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="P34" s="100" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q34" s="100" t="s">
+        <v>291</v>
+      </c>
+      <c r="R34" s="100" t="s">
         <v>293</v>
-      </c>
-      <c r="R34" s="100" t="s">
-        <v>295</v>
       </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5501,45 +5505,45 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="98" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E36" s="98" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="G36" s="98" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="H36" s="98" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="I36" s="98" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="J36" s="98" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K36" s="98" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L36" s="98"/>
       <c r="M36" s="98" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="N36" s="98" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="O36" s="98" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="P36" s="98" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="Q36" s="98"/>
       <c r="R36" s="98" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5602,45 +5606,45 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="100" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E38" s="100" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="G38" s="100" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="H38" s="100" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="I38" s="100" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="J38" s="100" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="K38" s="100" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="L38" s="100"/>
       <c r="M38" s="100" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="N38" s="100" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="O38" s="100" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="P38" s="100" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="Q38" s="100"/>
       <c r="R38" s="100" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5673,36 +5677,36 @@
         <v>272</v>
       </c>
       <c r="E40" s="98" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G40" s="98"/>
       <c r="H40" s="98"/>
       <c r="I40" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="J40" s="98" t="s">
         <v>284</v>
       </c>
-      <c r="J40" s="98" t="s">
+      <c r="K40" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="K40" s="98" t="s">
-        <v>288</v>
-      </c>
       <c r="L40" s="98" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M40" s="98"/>
       <c r="N40" s="98"/>
       <c r="O40" s="98" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="P40" s="98" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="Q40" s="98"/>
       <c r="R40" s="98" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5768,36 +5772,36 @@
         <v>273</v>
       </c>
       <c r="E42" s="100" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F42" s="100" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G42" s="100"/>
       <c r="H42" s="100"/>
       <c r="I42" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="J42" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="J42" s="100" t="s">
+      <c r="K42" s="100" t="s">
         <v>287</v>
       </c>
-      <c r="K42" s="100" t="s">
-        <v>289</v>
-      </c>
       <c r="L42" s="100" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="M42" s="100"/>
       <c r="N42" s="100"/>
       <c r="O42" s="100" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="P42" s="100" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="Q42" s="100"/>
       <c r="R42" s="100" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5827,38 +5831,38 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="98" t="s">
-        <v>332</v>
+        <v>392</v>
       </c>
       <c r="E44" s="98"/>
       <c r="F44" s="98"/>
       <c r="G44" s="98" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="H44" s="98" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="I44" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="J44" s="98" t="s">
         <v>284</v>
       </c>
-      <c r="J44" s="98" t="s">
+      <c r="K44" s="98" t="s">
         <v>286</v>
-      </c>
-      <c r="K44" s="98" t="s">
-        <v>288</v>
       </c>
       <c r="L44" s="98"/>
       <c r="M44" s="98"/>
       <c r="N44" s="98" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="O44" s="98" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="P44" s="98" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="Q44" s="98" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="R44" s="98"/>
       <c r="S44" s="53"/>
@@ -5922,38 +5926,38 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="100" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E46" s="100"/>
       <c r="F46" s="100"/>
       <c r="G46" s="100" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="H46" s="100" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="I46" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="J46" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="J46" s="100" t="s">
+      <c r="K46" s="100" t="s">
         <v>287</v>
-      </c>
-      <c r="K46" s="100" t="s">
-        <v>289</v>
       </c>
       <c r="L46" s="100"/>
       <c r="M46" s="100"/>
       <c r="N46" s="100" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="O46" s="100" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="P46" s="100" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="Q46" s="100" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="R46" s="100"/>
       <c r="S46" s="58"/>
@@ -5984,45 +5988,45 @@
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="98" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="E48" s="98" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F48" s="98" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="G48" s="98"/>
       <c r="H48" s="98" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
       <c r="I48" s="98" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="J48" s="98" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="K48" s="98" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L48" s="98"/>
       <c r="M48" s="98" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="N48" s="98" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="O48" s="98" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="P48" s="98" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="Q48" s="98" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="R48" s="98" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="S48" s="53"/>
       <c r="V48" s="69"/>
@@ -6085,45 +6089,45 @@
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
       <c r="D50" s="100" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="E50" s="100" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="F50" s="100" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="G50" s="100"/>
       <c r="H50" s="100" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="I50" s="100" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="J50" s="100" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="K50" s="100" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L50" s="100"/>
       <c r="M50" s="100" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="N50" s="100" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="O50" s="100" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="P50" s="100" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="Q50" s="100" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="R50" s="100" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="S50" s="58"/>
       <c r="V50" s="69"/>
@@ -6153,43 +6157,43 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="98" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E52" s="98" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="F52" s="98"/>
       <c r="G52" s="98" t="s">
         <v>270</v>
       </c>
       <c r="H52" s="98" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="I52" s="98" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="J52" s="98" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="K52" s="98"/>
       <c r="L52" s="98" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="M52" s="98" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="N52" s="98" t="s">
         <v>272</v>
       </c>
       <c r="O52" s="98" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P52" s="98"/>
       <c r="Q52" s="98" t="s">
         <v>274</v>
       </c>
       <c r="R52" s="98" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="S52" s="53"/>
       <c r="V52" s="69"/>
@@ -6252,43 +6256,43 @@
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="100" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E54" s="100" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
       <c r="F54" s="100"/>
       <c r="G54" s="100" t="s">
         <v>271</v>
       </c>
       <c r="H54" s="100" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="I54" s="100" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="J54" s="100" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="K54" s="100"/>
       <c r="L54" s="100" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M54" s="100" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="N54" s="100" t="s">
         <v>273</v>
       </c>
       <c r="O54" s="100" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P54" s="100"/>
       <c r="Q54" s="100" t="s">
-        <v>275</v>
+        <v>381</v>
       </c>
       <c r="R54" s="100" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="S54" s="58"/>
       <c r="V54" s="69"/>
@@ -6321,7 +6325,7 @@
         <v>272</v>
       </c>
       <c r="E56" s="98" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F56" s="98"/>
       <c r="G56" s="98"/>
@@ -6378,7 +6382,7 @@
         <v>273</v>
       </c>
       <c r="E58" s="100" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經011。無為福勝分第十一.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經011。無為福勝分第十一.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39BA66AE-30E6-409C-A642-AD8BF7CEA0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D68055-F3B1-4FC2-8747-1EE5CDDF9EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="420">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1273,663 +1273,673 @@
     <t>寶</t>
   </si>
   <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>界</t>
+  </si>
+  <si>
+    <t>用</t>
+  </si>
+  <si>
+    <t>布</t>
+  </si>
+  <si>
+    <t>施</t>
+  </si>
+  <si>
+    <t>此</t>
+  </si>
+  <si>
+    <t>經</t>
+  </si>
+  <si>
+    <t>乃</t>
+  </si>
+  <si>
+    <t>至</t>
+  </si>
+  <si>
+    <t>受</t>
+  </si>
+  <si>
+    <t>持</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>句</t>
+  </si>
+  <si>
+    <t>偈</t>
+  </si>
+  <si>
+    <t>他</t>
+  </si>
+  <si>
+    <t>德</t>
+  </si>
+  <si>
+    <t>前</t>
+  </si>
+  <si>
+    <t>ui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ling5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tan6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄫㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㆰˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>po2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄜ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ni2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆰ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄞ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆩˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>滿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>爾</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>千</t>
-  </si>
-  <si>
-    <t>界</t>
-  </si>
-  <si>
-    <t>用</t>
-  </si>
-  <si>
-    <t>布</t>
-  </si>
-  <si>
-    <t>施</t>
-  </si>
-  <si>
-    <t>此</t>
-  </si>
-  <si>
-    <t>經</t>
-  </si>
-  <si>
-    <t>乃</t>
-  </si>
-  <si>
-    <t>至</t>
-  </si>
-  <si>
-    <t>受</t>
-  </si>
-  <si>
-    <t>持</t>
-  </si>
-  <si>
-    <t>四</t>
-  </si>
-  <si>
-    <t>句</t>
-  </si>
-  <si>
-    <t>偈</t>
-  </si>
-  <si>
-    <t>他</t>
-  </si>
-  <si>
-    <t>德</t>
-  </si>
-  <si>
-    <t>前</t>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄚㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ju5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ho5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆲ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sua1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siau3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>un5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ta1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ling5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄜ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆬ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tan6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆲˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄫㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄜ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lir2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sian6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lam5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㆰˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>po2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄧㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sam3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆰ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄨㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄞ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄥ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄞˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ku3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆩ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄠ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ting2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄥˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆬˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zur2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㄢ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cur2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄚˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄨˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4076,7 +4086,7 @@
   </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4176,9 +4186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V166"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -4242,28 +4250,28 @@
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="98" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="G4" s="98" t="s">
+        <v>415</v>
+      </c>
+      <c r="H4" s="98" t="s">
         <v>270</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="I4" s="98" t="s">
+        <v>271</v>
+      </c>
+      <c r="J4" s="98" t="s">
+        <v>359</v>
+      </c>
+      <c r="K4" s="98" t="s">
         <v>272</v>
-      </c>
-      <c r="G4" s="98" t="s">
-        <v>274</v>
-      </c>
-      <c r="H4" s="98" t="s">
-        <v>275</v>
-      </c>
-      <c r="I4" s="98" t="s">
-        <v>277</v>
-      </c>
-      <c r="J4" s="98" t="s">
-        <v>382</v>
-      </c>
-      <c r="K4" s="98" t="s">
-        <v>280</v>
       </c>
       <c r="L4" s="98"/>
       <c r="M4" s="98"/>
@@ -4289,7 +4297,7 @@
         <v>224</v>
       </c>
       <c r="G5" s="95" t="s">
-        <v>225</v>
+        <v>411</v>
       </c>
       <c r="H5" s="99" t="s">
         <v>168</v>
@@ -4317,28 +4325,28 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="100" t="s">
+        <v>356</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" s="100" t="s">
         <v>269</v>
       </c>
-      <c r="E6" s="100" t="s">
-        <v>271</v>
-      </c>
-      <c r="F6" s="100" t="s">
+      <c r="G6" s="100" t="s">
+        <v>416</v>
+      </c>
+      <c r="H6" s="100" t="s">
+        <v>357</v>
+      </c>
+      <c r="I6" s="100" t="s">
+        <v>358</v>
+      </c>
+      <c r="J6" s="100" t="s">
+        <v>360</v>
+      </c>
+      <c r="K6" s="100" t="s">
         <v>273</v>
-      </c>
-      <c r="G6" s="100" t="s">
-        <v>381</v>
-      </c>
-      <c r="H6" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="I6" s="100" t="s">
-        <v>278</v>
-      </c>
-      <c r="J6" s="100" t="s">
-        <v>279</v>
-      </c>
-      <c r="K6" s="100" t="s">
-        <v>281</v>
       </c>
       <c r="L6" s="100"/>
       <c r="M6" s="100"/>
@@ -4376,42 +4384,42 @@
       <c r="C8" s="52"/>
       <c r="D8" s="98"/>
       <c r="E8" s="98" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F8" s="98" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G8" s="98" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H8" s="98"/>
       <c r="I8" s="98" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="K8" s="98" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="L8" s="98" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M8" s="98" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="N8" s="98" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="O8" s="98" t="s">
-        <v>298</v>
+        <v>417</v>
       </c>
       <c r="P8" s="98" t="s">
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="98"/>
       <c r="R8" s="98" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="107"/>
@@ -4455,8 +4463,8 @@
       <c r="N9" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="O9" s="99" t="s">
-        <v>230</v>
+      <c r="O9" s="94" t="s">
+        <v>412</v>
       </c>
       <c r="P9" s="99" t="s">
         <v>231</v>
@@ -4476,42 +4484,42 @@
       <c r="C10" s="52"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100" t="s">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="F10" s="100" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G10" s="100" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H10" s="100"/>
       <c r="I10" s="100" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="J10" s="100" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="K10" s="100" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="L10" s="100" t="s">
-        <v>295</v>
+        <v>362</v>
       </c>
       <c r="M10" s="100" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="N10" s="100" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="O10" s="100" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="P10" s="100" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="100"/>
       <c r="R10" s="100" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="107"/>
@@ -4541,45 +4549,45 @@
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="98" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>298</v>
+        <v>417</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H12" s="98" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="I12" s="98"/>
       <c r="J12" s="98" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="K12" s="98" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="L12" s="98" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="M12" s="98" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="N12" s="98"/>
       <c r="O12" s="98" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="P12" s="98" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="Q12" s="98" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="R12" s="98" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="107"/>
@@ -4642,45 +4650,45 @@
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="100" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="F14" s="100" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="G14" s="100" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H14" s="100" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="I14" s="100"/>
       <c r="J14" s="100" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="K14" s="100" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="L14" s="100" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="M14" s="100" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="N14" s="100"/>
       <c r="O14" s="100" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="P14" s="100" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="Q14" s="100" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="R14" s="100" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="107"/>
@@ -4693,7 +4701,9 @@
       <c r="F15" s="101"/>
       <c r="G15" s="101"/>
       <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
+      <c r="I15" s="101" t="s">
+        <v>410</v>
+      </c>
       <c r="J15" s="101"/>
       <c r="K15" s="101"/>
       <c r="L15" s="101"/>
@@ -4710,39 +4720,39 @@
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="98" t="s">
-        <v>298</v>
+        <v>417</v>
       </c>
       <c r="E16" s="98"/>
       <c r="F16" s="98" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="G16" s="98" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H16" s="98" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="I16" s="98" t="s">
-        <v>315</v>
+        <v>410</v>
       </c>
       <c r="J16" s="98"/>
       <c r="K16" s="98"/>
       <c r="L16" s="98" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M16" s="98" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="N16" s="98" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="O16" s="98" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="P16" s="98"/>
       <c r="Q16" s="98"/>
       <c r="R16" s="98" t="s">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="107"/>
@@ -4805,39 +4815,39 @@
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="100" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="E18" s="100"/>
       <c r="F18" s="100" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="G18" s="100" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H18" s="100" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="I18" s="100" t="s">
-        <v>316</v>
+        <v>419</v>
       </c>
       <c r="J18" s="100"/>
       <c r="K18" s="100"/>
       <c r="L18" s="100" t="s">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="M18" s="100" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="N18" s="100" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="O18" s="100" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="P18" s="100"/>
       <c r="Q18" s="100"/>
       <c r="R18" s="100" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="107"/>
@@ -4867,40 +4877,40 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="98" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="E20" s="98"/>
       <c r="F20" s="98" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>392</v>
+        <v>339</v>
       </c>
       <c r="H20" s="98"/>
       <c r="I20" s="98" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="J20" s="98" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="K20" s="98" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L20" s="98" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M20" s="98"/>
       <c r="N20" s="98" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="O20" s="98" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="P20" s="98" t="s">
-        <v>268</v>
+        <v>355</v>
       </c>
       <c r="Q20" s="98" t="s">
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="R20" s="98"/>
       <c r="S20" s="53"/>
@@ -4964,40 +4974,40 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="100" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="E22" s="100"/>
       <c r="F22" s="100" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="G22" s="100" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="H22" s="100"/>
       <c r="I22" s="100" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="J22" s="100" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="K22" s="100" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L22" s="100" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M22" s="100"/>
       <c r="N22" s="100" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="O22" s="100" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="P22" s="100" t="s">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="Q22" s="100" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="R22" s="100"/>
       <c r="S22" s="58"/>
@@ -5028,16 +5038,16 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="98" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="E24" s="98" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>298</v>
+        <v>417</v>
       </c>
       <c r="H24" s="98"/>
       <c r="I24" s="98"/>
@@ -5093,16 +5103,16 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="100" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="E26" s="100" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="F26" s="100" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="100"/>
@@ -5152,42 +5162,42 @@
       <c r="C28" s="52"/>
       <c r="D28" s="98"/>
       <c r="E28" s="98" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G28" s="98" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H28" s="98"/>
       <c r="I28" s="98" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="J28" s="98" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="K28" s="98" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="L28" s="98" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="M28" s="98" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="N28" s="98" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="O28" s="98"/>
       <c r="P28" s="98" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="Q28" s="98" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="R28" s="98" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="82" t="str">
@@ -5259,42 +5269,42 @@
       <c r="C30" s="52"/>
       <c r="D30" s="100"/>
       <c r="E30" s="100" t="s">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="F30" s="100" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G30" s="100" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H30" s="100"/>
       <c r="I30" s="100" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="J30" s="100" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="K30" s="100" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="L30" s="100" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="M30" s="100" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="N30" s="100" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="O30" s="100"/>
       <c r="P30" s="100" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="Q30" s="100" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="R30" s="100" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="82" t="str">
@@ -5332,45 +5342,45 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="98" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="E32" s="98" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="F32" s="98"/>
       <c r="G32" s="98" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="H32" s="98" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="I32" s="98" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="J32" s="98"/>
       <c r="K32" s="98" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="L32" s="98" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="M32" s="98" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="N32" s="98" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="O32" s="98" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="P32" s="98" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="Q32" s="98" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="R32" s="98" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="S32" s="53"/>
       <c r="U32" s="82" t="str">
@@ -5415,11 +5425,11 @@
       <c r="M33" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="N33" s="99" t="s">
-        <v>248</v>
+      <c r="N33" s="94" t="s">
+        <v>413</v>
       </c>
       <c r="O33" s="94" t="s">
-        <v>249</v>
+        <v>414</v>
       </c>
       <c r="P33" s="99" t="s">
         <v>191</v>
@@ -5437,45 +5447,45 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="100" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E34" s="100" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="F34" s="100"/>
       <c r="G34" s="100" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="H34" s="100" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="I34" s="100" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="J34" s="100"/>
       <c r="K34" s="100" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="L34" s="100" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="M34" s="100" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="N34" s="100" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="O34" s="100" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="P34" s="100" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="Q34" s="100" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="R34" s="100" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5505,45 +5515,45 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="98" t="s">
+        <v>417</v>
+      </c>
+      <c r="E36" s="98" t="s">
+        <v>363</v>
+      </c>
+      <c r="F36" s="98" t="s">
+        <v>318</v>
+      </c>
+      <c r="G36" s="98" t="s">
+        <v>345</v>
+      </c>
+      <c r="H36" s="98" t="s">
+        <v>390</v>
+      </c>
+      <c r="I36" s="98" t="s">
+        <v>345</v>
+      </c>
+      <c r="J36" s="98" t="s">
         <v>298</v>
       </c>
-      <c r="E36" s="98" t="s">
-        <v>300</v>
-      </c>
-      <c r="F36" s="98" t="s">
-        <v>352</v>
-      </c>
-      <c r="G36" s="98" t="s">
-        <v>401</v>
-      </c>
-      <c r="H36" s="98" t="s">
-        <v>354</v>
-      </c>
-      <c r="I36" s="98" t="s">
-        <v>401</v>
-      </c>
-      <c r="J36" s="98" t="s">
-        <v>320</v>
-      </c>
       <c r="K36" s="98" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="L36" s="98"/>
       <c r="M36" s="98" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="N36" s="98" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="O36" s="98" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="P36" s="98" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="Q36" s="98"/>
       <c r="R36" s="98" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5561,22 +5571,22 @@
         <v>231</v>
       </c>
       <c r="F37" s="99" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G37" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H37" s="99" t="s">
         <v>221</v>
       </c>
       <c r="I37" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J37" s="99" t="s">
         <v>210</v>
       </c>
       <c r="K37" s="99" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L37" s="99" t="s">
         <v>167</v>
@@ -5585,13 +5595,13 @@
         <v>193</v>
       </c>
       <c r="N37" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="O37" s="99" t="s">
+        <v>252</v>
+      </c>
+      <c r="P37" s="99" t="s">
         <v>253</v>
-      </c>
-      <c r="O37" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="P37" s="99" t="s">
-        <v>255</v>
       </c>
       <c r="Q37" s="99" t="s">
         <v>167</v>
@@ -5606,45 +5616,45 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="100" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="E38" s="100" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="G38" s="100" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="H38" s="100" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="I38" s="100" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="J38" s="100" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="K38" s="100" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="L38" s="100"/>
       <c r="M38" s="100" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="N38" s="100" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="O38" s="100" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="P38" s="100" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="Q38" s="100"/>
       <c r="R38" s="100" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5654,7 +5664,9 @@
       <c r="C39" s="80"/>
       <c r="D39" s="101"/>
       <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
+      <c r="F39" s="101" t="s">
+        <v>410</v>
+      </c>
       <c r="G39" s="101"/>
       <c r="H39" s="101"/>
       <c r="I39" s="101"/>
@@ -5674,39 +5686,39 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="98" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E40" s="98" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>315</v>
+        <v>410</v>
       </c>
       <c r="G40" s="98"/>
       <c r="H40" s="98"/>
       <c r="I40" s="98" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="J40" s="98" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="K40" s="98" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="L40" s="98" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="M40" s="98"/>
       <c r="N40" s="98"/>
       <c r="O40" s="98" t="s">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="P40" s="98" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="Q40" s="98"/>
       <c r="R40" s="98" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5769,39 +5781,39 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="100" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E42" s="100" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="F42" s="100" t="s">
-        <v>316</v>
+        <v>419</v>
       </c>
       <c r="G42" s="100"/>
       <c r="H42" s="100"/>
       <c r="I42" s="100" t="s">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="J42" s="100" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="K42" s="100" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="L42" s="100" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="M42" s="100"/>
       <c r="N42" s="100"/>
       <c r="O42" s="100" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="P42" s="100" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="Q42" s="100"/>
       <c r="R42" s="100" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5831,38 +5843,38 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="98" t="s">
-        <v>392</v>
+        <v>339</v>
       </c>
       <c r="E44" s="98"/>
       <c r="F44" s="98"/>
       <c r="G44" s="98" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
       <c r="H44" s="98" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="I44" s="98" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="J44" s="98" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="K44" s="98" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="L44" s="98"/>
       <c r="M44" s="98"/>
       <c r="N44" s="98" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="O44" s="98" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="P44" s="98" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="Q44" s="98" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="R44" s="98"/>
       <c r="S44" s="53"/>
@@ -5926,38 +5938,38 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="100" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="E46" s="100"/>
       <c r="F46" s="100"/>
       <c r="G46" s="100" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
       <c r="H46" s="100" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="I46" s="100" t="s">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="J46" s="100" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="K46" s="100" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="L46" s="100"/>
       <c r="M46" s="100"/>
       <c r="N46" s="100" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="O46" s="100" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="P46" s="100" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="Q46" s="100" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="R46" s="100"/>
       <c r="S46" s="58"/>
@@ -5988,45 +6000,45 @@
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="98" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="E48" s="98" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="F48" s="98" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="G48" s="98"/>
       <c r="H48" s="98" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="I48" s="98" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="J48" s="98" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="K48" s="98" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="L48" s="98"/>
       <c r="M48" s="98" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="N48" s="98" t="s">
-        <v>407</v>
+        <v>348</v>
       </c>
       <c r="O48" s="98" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="P48" s="98" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="Q48" s="98" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="R48" s="98" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="S48" s="53"/>
       <c r="V48" s="69"/>
@@ -6053,10 +6065,10 @@
         <v>207</v>
       </c>
       <c r="I49" s="99" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J49" s="99" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K49" s="99" t="s">
         <v>229</v>
@@ -6065,22 +6077,22 @@
         <v>167</v>
       </c>
       <c r="M49" s="99" t="s">
+        <v>256</v>
+      </c>
+      <c r="N49" s="99" t="s">
+        <v>257</v>
+      </c>
+      <c r="O49" s="99" t="s">
         <v>258</v>
       </c>
-      <c r="N49" s="99" t="s">
+      <c r="P49" s="99" t="s">
         <v>259</v>
       </c>
-      <c r="O49" s="99" t="s">
+      <c r="Q49" s="99" t="s">
         <v>260</v>
       </c>
-      <c r="P49" s="99" t="s">
+      <c r="R49" s="99" t="s">
         <v>261</v>
-      </c>
-      <c r="Q49" s="99" t="s">
-        <v>262</v>
-      </c>
-      <c r="R49" s="99" t="s">
-        <v>263</v>
       </c>
       <c r="S49" s="54"/>
       <c r="V49" s="69"/>
@@ -6089,45 +6101,45 @@
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
       <c r="D50" s="100" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="E50" s="100" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="F50" s="100" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="G50" s="100"/>
       <c r="H50" s="100" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="I50" s="100" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="J50" s="100" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="K50" s="100" t="s">
-        <v>295</v>
+        <v>362</v>
       </c>
       <c r="L50" s="100"/>
       <c r="M50" s="100" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="N50" s="100" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="O50" s="100" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="P50" s="100" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="Q50" s="100" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="R50" s="100" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="S50" s="58"/>
       <c r="V50" s="69"/>
@@ -6157,43 +6169,43 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="98" t="s">
-        <v>411</v>
+        <v>349</v>
       </c>
       <c r="E52" s="98" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="F52" s="98"/>
       <c r="G52" s="98" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H52" s="98" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="I52" s="98" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="J52" s="98" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="K52" s="98"/>
       <c r="L52" s="98" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="M52" s="98" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="N52" s="98" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O52" s="98" t="s">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="P52" s="98"/>
       <c r="Q52" s="98" t="s">
-        <v>274</v>
+        <v>415</v>
       </c>
       <c r="R52" s="98" t="s">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="S52" s="53"/>
       <c r="V52" s="69"/>
@@ -6204,8 +6216,8 @@
         <v>13</v>
       </c>
       <c r="C53" s="52"/>
-      <c r="D53" s="94" t="s">
-        <v>264</v>
+      <c r="D53" s="99" t="s">
+        <v>262</v>
       </c>
       <c r="E53" s="99" t="s">
         <v>232</v>
@@ -6216,8 +6228,8 @@
       <c r="G53" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="H53" s="94" t="s">
-        <v>265</v>
+      <c r="H53" s="99" t="s">
+        <v>263</v>
       </c>
       <c r="I53" s="99" t="s">
         <v>206</v>
@@ -6232,13 +6244,13 @@
         <v>205</v>
       </c>
       <c r="M53" s="99" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N53" s="99" t="s">
         <v>224</v>
       </c>
       <c r="O53" s="99" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P53" s="99" t="s">
         <v>167</v>
@@ -6247,7 +6259,7 @@
         <v>225</v>
       </c>
       <c r="R53" s="99" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S53" s="54"/>
       <c r="V53" s="69"/>
@@ -6256,43 +6268,43 @@
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="100" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E54" s="100" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="F54" s="100"/>
       <c r="G54" s="100" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H54" s="100" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="I54" s="100" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="J54" s="100" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="K54" s="100"/>
       <c r="L54" s="100" t="s">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="M54" s="100" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="N54" s="100" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O54" s="100" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="P54" s="100"/>
       <c r="Q54" s="100" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="R54" s="100" t="s">
-        <v>417</v>
+        <v>354</v>
       </c>
       <c r="S54" s="58"/>
       <c r="V54" s="69"/>
@@ -6322,10 +6334,10 @@
       <c r="B56" s="65"/>
       <c r="C56" s="52"/>
       <c r="D56" s="98" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E56" s="98" t="s">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="F56" s="98"/>
       <c r="G56" s="98"/>
@@ -6353,7 +6365,7 @@
         <v>224</v>
       </c>
       <c r="E57" s="99" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F57" s="99" t="s">
         <v>172</v>
@@ -6379,10 +6391,10 @@
       <c r="B58" s="67"/>
       <c r="C58" s="52"/>
       <c r="D58" s="100" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E58" s="100" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經011。無為福勝分第十一.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經011。無為福勝分第十一.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D68055-F3B1-4FC2-8747-1EE5CDDF9EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18746175-2AF8-433D-B601-4E14EA475F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -4186,7 +4186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
